--- a/back-end/all_members_data.xlsx
+++ b/back-end/all_members_data.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>MemberID</t>
   </si>
   <si>
-    <t>ParentID</t>
-  </si>
-  <si>
-    <t>MarriageID</t>
+    <t>FatherID</t>
+  </si>
+  <si>
+    <t>MotherID</t>
   </si>
   <si>
     <t>MemberName</t>
@@ -31,9 +31,6 @@
     <t>NickName</t>
   </si>
   <si>
-    <t>HasNickName</t>
-  </si>
-  <si>
     <t>BirthOrder</t>
   </si>
   <si>
@@ -61,7 +58,10 @@
     <t>Dod</t>
   </si>
   <si>
-    <t>PlaceOfDeadth</t>
+    <t>LunarDod</t>
+  </si>
+  <si>
+    <t>PlaceOfDeath</t>
   </si>
   <si>
     <t>GraveSite</t>
@@ -85,91 +85,136 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>NichName1</t>
-  </si>
-  <si>
-    <t>Hòa Bình</t>
-  </si>
-  <si>
-    <t>Note1</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>NichName2</t>
-  </si>
-  <si>
-    <t>Note2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>NichName3</t>
-  </si>
-  <si>
-    <t>Note3</t>
-  </si>
-  <si>
-    <t>EducationID</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>hùng1</t>
-  </si>
-  <si>
-    <t>hùng đã học ở đây</t>
-  </si>
-  <si>
-    <t>JobID</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>OrganizationAddress</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>JobName</t>
+    <t>Cụ Tổ 1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Job2</t>
-  </si>
-  <si>
-    <t>Job2Adress</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Role3</t>
-  </si>
-  <si>
-    <t>JobName3</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>574467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ 1 </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Vợ 2</t>
+  </si>
+  <si>
+    <t>Con 1</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Con 2</t>
+  </si>
+  <si>
+    <t>Vợ con 1</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New York Hospital</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Khong biet</t>
+  </si>
+  <si>
+    <t>day la note</t>
+  </si>
+  <si>
+    <t>Vợ 1</t>
+  </si>
+  <si>
+    <t>Vợ test</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\e623f28bef0ed193063c7f2ebf1365.png</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\56b2291d668555108d3b258bb76088.jpg</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\bfe0038eb6b134874d4dfe9164c810.jpg</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\28bf783cb8cdb5ba483bef29012fdb.png</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\e53a45d28904f2a21f154f557faeae.png</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\7a36a49389414f1cb099d108a6efa0.png</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\580c20e56a12a684f25e1deba289ed.jpg</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\6d66d2a4733ba4b8df699b66c10fb8.jpg</t>
+  </si>
+  <si>
+    <t>Con con 1</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\f5b0a91388a6e7d200a3e79055c661.jpg</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Chồnggg</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaa</t>
   </si>
   <si>
     <t>ContactID</t>
@@ -188,15 +233,6 @@
   </si>
   <si>
     <t>Zalo</t>
-  </si>
-  <si>
-    <t>Yên thủy-hòa bình</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>gmai.com</t>
   </si>
 </sst>
 </file>
@@ -574,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -652,9 +688,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
@@ -664,150 +697,1397 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>37189.708333333336</v>
-      </c>
-      <c r="L2" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>37189.708333333336</v>
-      </c>
-      <c r="L3" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>624</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>712</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>624</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K10" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O10" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>714</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>624</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K11" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O11" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>716</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>624</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K12" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O12" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>728</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>624</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K13" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O13" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>730</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>624</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K14" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O14" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>748</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>624</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K15" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O15" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>830</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>831</v>
+      </c>
+      <c r="C17">
+        <v>712</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>832</v>
+      </c>
+      <c r="C18">
+        <v>831</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>837</v>
+      </c>
+      <c r="C19">
+        <v>728</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4">
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>838</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>849</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>850</v>
+      </c>
+      <c r="B22">
+        <v>849</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>852</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>856</v>
+      </c>
+      <c r="C24">
+        <v>832</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>874</v>
+      </c>
+      <c r="C25">
+        <v>714</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>875</v>
+      </c>
+      <c r="C26">
+        <v>874</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>876</v>
+      </c>
+      <c r="C27">
+        <v>832</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>959</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>996</v>
+      </c>
+      <c r="B29">
+        <v>875</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -818,50 +2098,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="F2" s="1">
-        <v>36947.708333333336</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -869,111 +2108,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="H2" s="1">
-        <v>36947.708333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1">
-        <v>36947.708333333336</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36947.708333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44783.70833333333</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44816.70833333333</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -981,53 +2118,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/all_members_data.xlsx
+++ b/back-end/all_members_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
   <si>
     <t>MemberID</t>
   </si>
@@ -85,13 +85,160 @@
     <t>Image</t>
   </si>
   <si>
+    <t>Cụ Tổ 1</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>571016</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>574467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ 1 </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Vợ 2</t>
+  </si>
+  <si>
+    <t>Con 1</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Con 2</t>
+  </si>
+  <si>
+    <t>Vợ con 1</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New York Hospital</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Khong biet</t>
+  </si>
+  <si>
+    <t>day la note</t>
+  </si>
+  <si>
+    <t>Vợ 1</t>
+  </si>
+  <si>
+    <t>Vợ test</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\e623f28bef0ed193063c7f2ebf1365.png</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\56b2291d668555108d3b258bb76088.jpg</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\bfe0038eb6b134874d4dfe9164c810.jpg</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\28bf783cb8cdb5ba483bef29012fdb.png</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\e53a45d28904f2a21f154f557faeae.png</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\7a36a49389414f1cb099d108a6efa0.png</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\580c20e56a12a684f25e1deba289ed.jpg</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\6d66d2a4733ba4b8df699b66c10fb8.jpg</t>
+  </si>
+  <si>
+    <t>Con con 1</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>33333</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\f5b0a91388a6e7d200a3e79055c661.jpg</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Chồnggg</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>11111111111111111111</t>
+  </si>
+  <si>
+    <t>\uploads\images\member-photo\d14396aef2b81b898cee67953c24ef.jpg</t>
+  </si>
+  <si>
+    <t>ContactID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>FacebookUrl</t>
+  </si>
+  <si>
+    <t>Zalo</t>
   </si>
 </sst>
 </file>
@@ -127,8 +274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -544,66 +692,1446 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>685</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O2" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>882</v>
-      </c>
-      <c r="B3">
-        <v>685</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O3" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O4" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O5" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="K6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="O6" s="1">
+        <v>35253.708333333336</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O7" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>624</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>712</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>624</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K10" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O10" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>714</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>624</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K11" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O11" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>716</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>624</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K12" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O12" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>728</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>624</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K13" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O13" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>730</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>624</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K14" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O14" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>748</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>624</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="K15" s="1">
+        <v>29294.708333333332</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>29364.708333333332</v>
+      </c>
+      <c r="O15" s="1">
+        <v>36669.708333333336</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>830</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>831</v>
+      </c>
+      <c r="C17">
+        <v>712</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O17" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>832</v>
+      </c>
+      <c r="C18">
+        <v>831</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O18" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>837</v>
+      </c>
+      <c r="C19">
+        <v>728</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>838</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>849</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>850</v>
+      </c>
+      <c r="B22">
+        <v>849</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>852</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>856</v>
+      </c>
+      <c r="C24">
+        <v>832</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="K24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="O24" s="1">
+        <v>25568.666666666668</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>874</v>
+      </c>
+      <c r="C25">
+        <v>714</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>875</v>
+      </c>
+      <c r="C26">
+        <v>874</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>876</v>
+      </c>
+      <c r="C27">
+        <v>832</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>959</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>996</v>
+      </c>
+      <c r="B29">
+        <v>875</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1084</v>
+      </c>
+      <c r="B30">
+        <v>850</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>26</v>
+      </c>
+      <c r="W30" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -634,9 +2162,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>876</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/back-end/all_members_data.xlsx
+++ b/back-end/all_members_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
   <si>
     <t>MemberID</t>
   </si>
@@ -166,12 +166,6 @@
     <t>\uploads\images\member-photo\7a36a49389414f1cb099d108a6efa0.png</t>
   </si>
   <si>
-    <t>Test123</t>
-  </si>
-  <si>
-    <t>\uploads\images\member-photo\580c20e56a12a684f25e1deba289ed.jpg</t>
-  </si>
-  <si>
     <t>111111111</t>
   </si>
   <si>
@@ -211,16 +205,13 @@
     <t>Chồnggg</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
     <t>11111111111111111111</t>
   </si>
   <si>
-    <t>\uploads\images\member-photo\d14396aef2b81b898cee67953c24ef.jpg</t>
+    <t>https://giaphanguoiviet.com/uploads/images/member-photo/382328343_23861139558030264_632421352898419351_n.jpg</t>
+  </si>
+  <si>
+    <t>vo</t>
   </si>
   <si>
     <t>ContactID</t>
@@ -616,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1595,19 +1586,19 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="K17" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="O17" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -1645,19 +1636,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="K18" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="O18" s="1">
-        <v>25568.666666666668</v>
+        <v>25568.708333333332</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -1674,16 +1665,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>837</v>
-      </c>
-      <c r="C19">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1701,10 +1689,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -1713,17 +1698,17 @@
         <v>26</v>
       </c>
       <c r="W19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>838</v>
+        <v>849</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="F20">
@@ -1750,19 +1735,16 @@
       <c r="V20" t="s">
         <v>26</v>
       </c>
-      <c r="W20" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>850</v>
+      </c>
+      <c r="B21">
         <v>849</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1780,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1791,20 +1773,20 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B22">
-        <v>849</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
@@ -1815,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -1826,52 +1808,67 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>852</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
+        <v>856</v>
+      </c>
+      <c r="C23">
+        <v>832</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>25568.708333333332</v>
+      </c>
+      <c r="K23" s="1">
+        <v>25568.708333333332</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>25568.708333333332</v>
+      </c>
+      <c r="O23" s="1">
+        <v>25568.708333333332</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+      <c r="W23" t="s">
         <v>58</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C24">
-        <v>832</v>
+        <v>714</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
       <c r="F24">
         <v>1</v>
       </c>
@@ -1884,43 +1881,28 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
-        <v>25568.666666666668</v>
-      </c>
-      <c r="K24" s="1">
-        <v>25568.666666666668</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="1">
-        <v>25568.666666666668</v>
-      </c>
-      <c r="O24" s="1">
-        <v>25568.666666666668</v>
-      </c>
       <c r="S24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
         <v>26</v>
-      </c>
-      <c r="W24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>875</v>
+      </c>
+      <c r="C25">
         <v>874</v>
       </c>
-      <c r="C25">
-        <v>714</v>
-      </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1938,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -1949,19 +1931,22 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C26">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1973,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -1984,22 +1969,19 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>876</v>
-      </c>
-      <c r="C27">
-        <v>832</v>
+        <v>959</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2011,7 +1993,10 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -2022,13 +2007,13 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>959</v>
+        <v>1084</v>
+      </c>
+      <c r="B28">
+        <v>850</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2048,29 +2033,26 @@
       <c r="S28">
         <v>5</v>
       </c>
-      <c r="T28" t="s">
-        <v>25</v>
-      </c>
       <c r="U28">
         <v>1</v>
       </c>
       <c r="V28" t="s">
         <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>996</v>
-      </c>
-      <c r="B29">
-        <v>875</v>
+        <v>1148</v>
+      </c>
+      <c r="C29">
+        <v>728</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -2087,51 +2069,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1084</v>
-      </c>
-      <c r="B30">
-        <v>850</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W30" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2162,30 +2106,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,6 +2162,14 @@
       </c>
       <c r="B5">
         <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/all_members_data.xlsx
+++ b/back-end/all_members_data.xlsx
@@ -4,13 +4,105 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Family Member Data" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Education Data" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Job Data" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="Contact Data" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="Family Member Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Education Data" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Job Data" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Contact Data" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+  <si>
+    <t>MemberID</t>
+  </si>
+  <si>
+    <t>FatherID</t>
+  </si>
+  <si>
+    <t>MotherID</t>
+  </si>
+  <si>
+    <t>MemberName</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>BirthOrder</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>NationalityID</t>
+  </si>
+  <si>
+    <t>ReligionID</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>LunarDob</t>
+  </si>
+  <si>
+    <t>BirthPlace</t>
+  </si>
+  <si>
+    <t>IsDead</t>
+  </si>
+  <si>
+    <t>Dod</t>
+  </si>
+  <si>
+    <t>LunarDod</t>
+  </si>
+  <si>
+    <t>PlaceOfDeath</t>
+  </si>
+  <si>
+    <t>GraveSite</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>BloodType</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>CodeID</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>962359</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,9 +477,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:W5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>853</v>
+      </c>
+      <c r="B2">
+        <v>836</v>
+      </c>
+      <c r="C2">
+        <v>889</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>862</v>
+      </c>
+      <c r="B3">
+        <v>853</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>873</v>
+      </c>
+      <c r="B4">
+        <v>862</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>889</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
